--- a/Data/Processed/Angiosperms/missing_powo_ipni/Santalaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Santalaceae.xlsx
@@ -11872,7 +11872,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -12345,7 +12345,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -12355,7 +12355,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 610. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 610. 1913</t>
         </is>
       </c>
       <c r="J217" t="b">
